--- a/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/Accuracy round 1/NCC with feature Accuracy Training sit_long .xlsx
+++ b/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/Accuracy round 1/NCC with feature Accuracy Training sit_long .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab\Mobile Authentication\New Dataset HistogramxFeature\Experiment result NCC with feature\Sit Long\Accuracy round 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A184502-3BF0-4C2F-8714-4A3A5390E39A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3855C117-D77B-4DB2-9C94-E66BCA68F8F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8190" firstSheet="2" activeTab="3" xr2:uid="{394EE492-C35C-4FE7-A850-7F2E69943D7D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="3" xr2:uid="{8E561005-FB62-4DB9-BD4A-EDE3BA663698}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4691F1-A5AB-4980-9A88-71212A0F4EAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E23B06-91DD-4452-8478-B40D44D92166}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A810A0A7-6629-40C6-A01A-DAF94E6EBE90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E36216-5001-4C17-B840-31AA8D07C791}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -396,30 +396,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.5</v>
+        <v>0.23255813953488369</v>
       </c>
       <c r="D1">
-        <v>0.5</v>
+        <v>0.55348837209302326</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5</v>
+        <v>0.23255813953488369</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
   </sheetData>
@@ -428,7 +428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83B3EF1-FB1F-4217-9ED8-793CC737BA02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516640CE-4723-407C-99E5-30DDF7328771}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -439,30 +439,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="D1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
   </sheetData>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085A71D1-7062-46E2-8348-A10CDD2571D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06850466-7454-4BE1-B556-537D9951369B}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -482,30 +482,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
       <c r="D1">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.5</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
   </sheetData>

--- a/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/Accuracy round 1/NCC with feature Accuracy Training sit_long .xlsx
+++ b/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/Accuracy round 1/NCC with feature Accuracy Training sit_long .xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab\Mobile Authentication\New Dataset HistogramxFeature\Experiment result NCC with feature\Sit Long\Accuracy round 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3855C117-D77B-4DB2-9C94-E66BCA68F8F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1664A3-F27C-41DD-AE2E-931F0EAD4060}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="3" xr2:uid="{8E561005-FB62-4DB9-BD4A-EDE3BA663698}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" firstSheet="5" activeTab="6" xr2:uid="{8E561005-FB62-4DB9-BD4A-EDE3BA663698}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="accuracy period3testperiod3" sheetId="2" r:id="rId2"/>
     <sheet name="accuracy period3testperiod4" sheetId="3" r:id="rId3"/>
     <sheet name="accuracy period3testperiod5" sheetId="4" r:id="rId4"/>
+    <sheet name="accuracy period3testperiod6" sheetId="5" r:id="rId5"/>
+    <sheet name="accuracy period3testperiod7" sheetId="6" r:id="rId6"/>
+    <sheet name="accuracy period3testperiod8" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -386,7 +389,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E36216-5001-4C17-B840-31AA8D07C791}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -396,30 +399,505 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.23255813953488369</v>
+        <v>0.69922480620155036</v>
       </c>
       <c r="D1">
-        <v>0.55348837209302326</v>
+        <v>0.78044961240310107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.76744186046511631</v>
+        <v>0.74573643410852708</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.23255813953488369</v>
+        <v>0.71162790697674416</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.76744186046511631</v>
+        <v>0.87441860465116283</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.76744186046511631</v>
+        <v>0.8046511627906977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.69922480620155036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.71007751937984498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.71162790697674416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.92713178294573639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.72713178294573644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.66201550387596897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.88682170542635663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.94418604651162785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.53178294573643403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.79379844961240309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.70232558139534884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.79379844961240309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.81550387596899221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.72558139534883725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.69302325581395352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.79379844961240309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.63720930232558137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.77054263565891468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.8170542635658915</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.82170542635658916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.80155038759689923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.86356589147286822</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.74263565891472871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.63255813953488371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.88837209302325582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.76434108527131783</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.79379844961240309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.7069767441860465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.73798449612403094</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.67286821705426358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.84496124031007747</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.77519379844961245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.66356589147286815</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.70232558139534884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.6945736434108527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.61395348837209296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.6945736434108527</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.72558139534883725</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.76589147286821702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.84651162790697676</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.66976744186046511</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.87906976744186049</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.78914728682170543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.77209302325581397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.90852713178294575</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.74573643410852708</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.60930232558139541</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.82635658914728682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.83720930232558133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.76124031007751936</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.66821705426356592</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.74263565891472871</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.67906976744186043</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.8527131782945736</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.75968992248062017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.78914728682170543</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.84496124031007747</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.86201550387596892</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.87596899224806202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.92713178294573639</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.90387596899224809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.92093023255813955</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.68527131782945738</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.89302325581395348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.75658914728682169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.89767441860465114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.81240310077519373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.74728682170542637</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.87441860465116283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.84806201550387594</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.87286821705426354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.72403100775193796</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.83875968992248062</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.9023255813953488</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.64186046511627914</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.87131782945736436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.88372093023255816</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.82480620155038764</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.8418604651162791</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.90697674418604657</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.8775193798449612</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.78294573643410859</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.78604651162790695</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.87441860465116283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.80930232558139537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.79689922480620157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.7441860465116279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.63720930232558137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.78139534883720929</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.87596899224806202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.65581395348837201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.7193798449612403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.72403100775193796</v>
       </c>
     </row>
   </sheetData>
@@ -429,7 +907,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516640CE-4723-407C-99E5-30DDF7328771}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -439,30 +917,505 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.76744186046511631</v>
+        <v>0.68837209302325575</v>
       </c>
       <c r="D1">
-        <v>0.76744186046511631</v>
+        <v>0.78682170542635665</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.76744186046511631</v>
+        <v>0.77209302325581397</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.76744186046511631</v>
+        <v>0.7069767441860465</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.76744186046511631</v>
+        <v>0.92713178294573639</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.76744186046511631</v>
+        <v>0.79844961240310075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.69147286821705434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.7441860465116279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.78604651162790695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.70077519379844966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.77674418604651163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.84961240310077524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.94728682170542633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.67906976744186043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.8046511627906977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.8046511627906977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.74263565891472871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.74263565891472871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.71162790697674416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.69612403100775189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.65271317829457365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.76899224806201549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.8527131782945736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.80310077519379841</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.80155038759689923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.83565891472868215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.78139534883720929</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.69147286821705434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.91627906976744189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.76434108527131783</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.79844961240310075</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.72093023255813948</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.85116279069767442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.62015503875968991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.71007751937984498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.74573643410852708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.66046511627906979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.65581395348837201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.73953488372093024</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.66046511627906979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.66976744186046511</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.80310077519379841</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.7069767441860465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.8046511627906977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.74728682170542637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.86356589147286822</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.8775193798449612</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.76279069767441854</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.91937984496124026</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.7317829457364341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.73798449612403094</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.83720930232558133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.82325581395348835</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.78604651162790695</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.72093023255813948</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.74883720930232556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.65581395348837201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.89612403100775195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.80155038759689923</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.84341085271317828</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.90387596899224809</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.85891472868217056</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.8418604651162791</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.87441860465116283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.63100775193798442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.88837209302325582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.8046511627906977</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.78604651162790695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.78914728682170543</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.77674418604651163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.84341085271317828</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.78604651162790695</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.76434108527131783</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.79379844961240309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.92248062015503873</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.77054263565891468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.92713178294573639</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.92248062015503873</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.8418604651162791</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.88062015503875968</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.88217054263565897</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.86201550387596892</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.84961240310077524</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.81395348837209303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.85891472868217056</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.81860465116279069</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.8170542635658915</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.75968992248062017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.73953488372093024</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.75038759689922485</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.91317829457364341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.59844961240310079</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.74883720930232556</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.72248062015503878</v>
       </c>
     </row>
   </sheetData>
@@ -472,7 +1425,1561 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06850466-7454-4BE1-B556-537D9951369B}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.67906976744186043</v>
+      </c>
+      <c r="D1">
+        <v>0.78386046511627905</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.74573643410852708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.66821705426356592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.91627906976744189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.78294573643410859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.74573643410852708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.79224806201550391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.77209302325581397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.95348837209302328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.65426356589147283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.70232558139534884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.84806201550387594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.94418604651162785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.78449612403100777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.75968992248062017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.78294573643410859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.71782945736434112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.84341085271317828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.67596899224806206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.72868217054263562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.7085271317829458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.76589147286821702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.79534883720930227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.79534883720930227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.86356589147286822</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.89302325581395348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.82635658914728682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.79844961240310075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.75658914728682169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.7193798449612403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.62790697674418605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.84651162790697676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.77674418604651163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.79069767441860461</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.77209302325581397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.93023255813953487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.78294573643410859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.82015503875968987</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.71627906976744193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.6837209302325582</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.61550387596899225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.73643410852713176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.64341085271317833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.64496124031007751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.64806201550387599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.73798449612403094</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.77829457364341081</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.61085271317829459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.91782945736434107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.92713178294573639</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.69612403100775189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.89767441860465114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.7317829457364341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.65271317829457365</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.89922480620155043</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.81240310077519373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.84031007751937981</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.74108527131782953</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.84496124031007747</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.65271317829457365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.85581395348837208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.80155038759689923</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.79844961240310075</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.84651162790697676</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.86821705426356588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.91162790697674423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.86201550387596892</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.85736434108527138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.84341085271317828</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.70232558139534884</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.83255813953488378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.70232558139534884</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.86046511627906974</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.82170542635658916</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.75658914728682169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.88837209302325582</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.7069767441860465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.79534883720930227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.71627906976744193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.77829457364341081</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.87131782945736436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.87286821705426354</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.94263565891472867</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.85736434108527138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.77364341085271315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.8294573643410853</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.97209302325581393</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.75348837209302322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.84031007751937981</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.82480620155038764</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.79844961240310075</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.65271317829457365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.63720930232558137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.83875968992248062</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.91007751937984493</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.59069767441860466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.68837209302325575</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.72868217054263562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204C7272-6074-4DB5-A9F5-2ACF4D446FA2}">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.70387596899224802</v>
+      </c>
+      <c r="D1">
+        <v>0.78817054263565911</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.76744186046511631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.67596899224806206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.92713178294573639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.82015503875968987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.74573643410852708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.70232558139534884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.93488372093023253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.66976744186046511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.62480620155038757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.83255813953488378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.94728682170542633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.85736434108527138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.85891472868217056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.72248062015503878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.71627906976744193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.80930232558139537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.66356589147286815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.70077519379844966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.7069767441860465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.67596899224806206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.83100775193798448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.74573643410852708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.86046511627906974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.87441860465116283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.79069767441860461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.84031007751937981</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.81395348837209303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.76434108527131783</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.64341085271317833</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.85891472868217056</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.79534883720930227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.80620155038759689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.78914728682170543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.93798449612403101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.81240310077519373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.76744186046511631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.74883720930232556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.68682170542635657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.67751937984496124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.77054263565891468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.67596899224806206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.64186046511627914</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.8170542635658915</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.81550387596899221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.8542635658914729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.74883720930232556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.84651162790697676</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.80620155038759689</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.78449612403100777</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.89612403100775195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.76124031007751936</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.70542635658914721</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.86976744186046506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.85891472868217056</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.89922480620155043</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.6837209302325582</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.77054263565891468</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.66511627906976745</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.87131782945736436</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.72558139534883725</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.81395348837209303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.82635658914728682</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.89922480620155043</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.82635658914728682</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.79534883720930227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.76744186046511631</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.75193798449612403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.74728682170542637</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.79844961240310075</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.8527131782945736</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.77364341085271315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.85116279069767442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.86201550387596892</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.74728682170542637</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.85891472868217056</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.89147286821705429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.77364341085271315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.92248062015503873</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.7069767441860465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.81085271317829455</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.91937984496124026</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.88837209302325582</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.8542635658914729</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.82170542635658916</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.79689922480620157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.77984496124031011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.75813953488372099</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.78294573643410859</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.8046511627906977</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.76589147286821702</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.67751937984496124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.65581395348837201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.80310077519379841</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.90852713178294575</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.6837209302325582</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.72403100775193796</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.73798449612403094</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73167BE-F6F1-43BE-B0E4-4B17B950D262}">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.72713178294573644</v>
+      </c>
+      <c r="D1">
+        <v>0.78936434108527109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.69612403100775189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.68217054263565891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.92868217054263569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.83875968992248062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.75658914728682169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.78139534883720929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.71627906976744193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.94418604651162785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.69302325581395352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.65736434108527131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.78139534883720929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.95038759689922481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.88217054263565897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.77209302325581397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.79689922480620157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.75503875968992251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.82790697674418601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.66821705426356592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.68062015503875961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.7085271317829458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.65581395348837201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.80930232558139537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.83410852713178296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.8775193798449612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.78604651162790695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.76589147286821702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.77364341085271315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.71317829457364335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.65581395348837201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.87131782945736436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.78449612403100777</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.77054263565891468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.77364341085271315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.89767441860465114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.79069767441860461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.8651162790697674</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.78294573643410859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.65116279069767447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.67596899224806206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.80620155038759689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.68837209302325575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.66511627906976745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.79844961240310075</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.87286821705426354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.71627906976744193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.89922480620155043</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.8170542635658915</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.88682170542635663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.75658914728682169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.78294573643410859</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.82170542635658916</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.78449612403100777</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.83875968992248062</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.77829457364341081</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.84496124031007747</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.66046511627906979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.85891472868217056</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.72248062015503878</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.79069767441860461</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.84031007751937981</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.74108527131782953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.8527131782945736</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.79844961240310075</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.85891472868217056</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.81085271317829455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.74573643410852708</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.8418604651162791</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.7085271317829458</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.90852713178294575</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.77829457364341081</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.80310077519379841</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.92403100775193803</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.74728682170542637</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.82790697674418601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.76899224806201549</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.75968992248062017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.90387596899224809</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.77054263565891468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.84341085271317828</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.93953488372093019</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.82170542635658916</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.81395348837209303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.78294573643410859</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.77054263565891468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.80930232558139537</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.77519379844961245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.78914728682170543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.88837209302325582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.66201550387596897</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.69767441860465118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.79844961240310075</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.93488372093023253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.63100775193798442</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.67286821705426358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0.7441860465116279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2920C3-CFC2-4E0B-964D-F9CE81594D14}">
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -482,29 +2989,504 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.76744186046511631</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.76744186046511631</v>
+        <v>0.79396899224806194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.76744186046511631</v>
+        <v>0.68992248062015504</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.76744186046511631</v>
+        <v>0.7069767441860465</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.76744186046511631</v>
+        <v>0.94263565891472867</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>0.81240310077519373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.6945736434108527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.71162790697674416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.77054263565891468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.95038759689922481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.68837209302325575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.71007751937984498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.83100775193798448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.94263565891472867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.80310077519379841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.75968992248062017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.78914728682170543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.7441860465116279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.82635658914728682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.71007751937984498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.64341085271317833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.7302325581395348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.69302325581395352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.8170542635658915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.78139534883720929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.80620155038759689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.9147286821705426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.79534883720930227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.76899224806201549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.88062015503875968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.78604651162790695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.68217054263565891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.89922480620155043</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.80930232558139537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.82790697674418601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.7302325581395348</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.79689922480620157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.76124031007751936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.83720930232558133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.82015503875968987</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.65426356589147283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.66821705426356592</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.8527131782945736</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.65426356589147283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.70387596899224802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.78294573643410859</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.8046511627906977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.81085271317829455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.91782945736434107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.85891472868217056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.83565891472868215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.87286821705426354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.77364341085271315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.68682170542635657</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.85736434108527138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.77519379844961245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.77829457364341081</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.81860465116279069</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.82170542635658916</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.64186046511627914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.81085271317829455</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.79224806201550391</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.84341085271317828</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.81860465116279069</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.81240310077519373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.8418604651162791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.84806201550387594</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.86976744186046506</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.83875968992248062</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.75968992248062017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.76744186046511631</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.84496124031007747</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.83410852713178296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.81395348837209303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.90077519379844961</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.87286821705426354</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.78294573643410859</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.86046511627906974</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.68992248062015504</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.84806201550387594</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.8294573643410853</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.68062015503875961</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.76124031007751936</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.93178294573643416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.80155038759689923</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.93643410852713183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.81395348837209303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.84806201550387594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.81860465116279069</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.7302325581395348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.84961240310077524</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.82790697674418601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.84031007751937981</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.68682170542635657</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.79689922480620157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.94728682170542633</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.61085271317829459</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.76434108527131783</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>0.76744186046511631</v>
       </c>
     </row>

--- a/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/Accuracy round 1/NCC with feature Accuracy Training sit_long .xlsx
+++ b/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/Accuracy round 1/NCC with feature Accuracy Training sit_long .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab\Mobile Authentication\New Dataset HistogramxFeature\Experiment result NCC with feature\Sit Long\Accuracy round 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1664A3-F27C-41DD-AE2E-931F0EAD4060}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9EA401-02AC-4E53-89B6-EB1DB6DAE7D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" firstSheet="5" activeTab="6" xr2:uid="{8E561005-FB62-4DB9-BD4A-EDE3BA663698}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" firstSheet="1" activeTab="2" xr2:uid="{8E561005-FB62-4DB9-BD4A-EDE3BA663698}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,30 +399,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.69922480620155036</v>
+        <v>0.74</v>
       </c>
       <c r="D1">
-        <v>0.78044961240310107</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.74573643410852708</v>
+        <v>0.68199999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.71162790697674416</v>
+        <v>0.58600000000000008</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.87441860465116283</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.8046511627906977</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516640CE-4723-407C-99E5-30DDF7328771}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -917,30 +917,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.68837209302325575</v>
+        <v>0.74</v>
       </c>
       <c r="D1">
-        <v>0.78682170542635665</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.77209302325581397</v>
+        <v>0.68199999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.7069767441860465</v>
+        <v>0.58600000000000008</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.92713178294573639</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.79844961240310075</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,7 +2981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2920C3-CFC2-4E0B-964D-F9CE81594D14}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
